--- a/Section05/FLowPoint/EcuacionesCaudalMedio.xlsx
+++ b/Section05/FLowPoint/EcuacionesCaudalMedio.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLGC\R.LTWB\Section05\FLowPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2600B-6F4C-496E-9138-5F1D58365F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFE85B-970D-4B99-BB8B-E7CC7C2C58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{0703AF15-B5A1-4A68-88FF-1B4354C08421}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1 (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja2 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Hoja2 (2)'!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="568">
   <si>
     <t>A (km2)</t>
   </si>
@@ -1729,6 +1732,21 @@
   </si>
   <si>
     <t>ALOSFac</t>
+  </si>
+  <si>
+    <t>Regional Composite</t>
+  </si>
+  <si>
+    <t>Qm IDEAM</t>
+  </si>
+  <si>
+    <t>Qm Budyko</t>
+  </si>
+  <si>
+    <t>Qm Dekop</t>
+  </si>
+  <si>
+    <t>Qm Turc</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,9 +1846,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6024,6 +6039,4511 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budyko Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5799999999999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.904999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.504999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.779999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.104999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.754999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59A8-4EC7-A3BF-AED04691D93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dekop Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59A8-4EC7-A3BF-AED04691D93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turc Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.362</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.236999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.861999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.486999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.987000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.487000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.987000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.612000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.237000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59A8-4EC7-A3BF-AED04691D93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regional Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$N$2:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8349999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.234999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.584999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.634999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59A8-4EC7-A3BF-AED04691D93A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1255785743"/>
+        <c:axId val="1261510495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1255785743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Área (km2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261510495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1261510495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal medio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> (m3/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255785743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja1 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budyko Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.37169999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42209999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B69D-447B-BD6E-FB1E18111222}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja1 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dekop Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.2300000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.653E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.083E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5130000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9430000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3730000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8029999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10232999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13093000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14523000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15953000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17383000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18813000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21673000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23103000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24533000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25963000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27393000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28823000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30253000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33113000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34543000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35972999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B69D-447B-BD6E-FB1E18111222}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja1 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turc Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja1 (2)'!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.4299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0130000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7830000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5530000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3230000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0929999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16172999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17942999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21482999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23252999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25023000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26793</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30332999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32102999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33872999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35642999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39183000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40953000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44492999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B69D-447B-BD6E-FB1E18111222}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1255785743"/>
+        <c:axId val="1261510495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1255785743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Área (km2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261510495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1261510495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal medio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> (m3/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255785743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm IDEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>21197080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21197110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21197210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21207960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21209200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21209920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21237020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21237040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23017020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23017030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23017090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23067050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23067070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23067080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23067090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35027020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35027100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35027190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35027220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35027500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35027510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35067020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35067040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35067120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35077140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7556336061378801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1362960272810398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121155093464017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.873430997943501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.948209091218501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8355864223846101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1223.8198671289699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0835605477998902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3769709825779299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.7427483901728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.0067627617399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.366735034671905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6446465538755799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.915911330297099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6466327699411991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.5460614998516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2961604797311104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.827110078118501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116982549405361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1792430095052401E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94198458276133601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.140314706032598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.390331932787603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9767185174841195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.118837907460501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C63-4DB9-9822-E1C651735863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Budyko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>21197080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21197110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21197210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21207960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21209200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21209920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21237020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21237040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23017020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23017030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23017090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23067050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23067070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23067080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23067090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35027020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35027100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35027190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35027220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35027500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35027510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35067020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35067040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35067120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35077140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.5746999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1660000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.784E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.818399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.579599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3455E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7192400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3261E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70757899999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68865399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.837400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8199999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5799999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3062900000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.4498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39034099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0089999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1527000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8490999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.259245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.078E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.156E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5539999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7070000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C63-4DB9-9822-E1C651735863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Dekop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>21197080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21197110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21197210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21207960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21209200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21209920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21237020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21237040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23017020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23017030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23017090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23067050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23067070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23067080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23067090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35027020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35027100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35027190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35027220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35027500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35027510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35067020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35067040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35067120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35077140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$H$2:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.0718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2989999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.408E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.846899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.375799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6919E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.331499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0840999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0257E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54785700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53310400000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.313499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1149999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0094499999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31301499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.83E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2826000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22703499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.887E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3709999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.143E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6779999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C63-4DB9-9822-E1C651735863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Turc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>21197080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21197110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21197210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21207960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21209200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21209920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21237020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21237040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23017020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23017030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23017090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23067050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23067070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23067080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23067090</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35027020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35027100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35027190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35027220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35027500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35027510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35067020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35067040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35067120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35077140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.6258E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9150000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9980000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.0959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.800400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3154999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.993499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2710300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0750000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43010500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41887200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.212499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9449999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2929999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9896399999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.8979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50026099999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8090999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8608999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33113100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.284E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5529999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7619999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7289999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C63-4DB9-9822-E1C651735863}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="662125584"/>
+        <c:axId val="672360704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="662125584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Estación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672360704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672360704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662125584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Budyko</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7556336061378801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1362960272810398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121155093464017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.873430997943501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.948209091218501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8355864223846101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1223.8198671289699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0835605477998902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3769709825779299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.7427483901728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.0067627617399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.366735034671905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6446465538755799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.915911330297099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6466327699411991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.5460614998516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2961604797311104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.827110078118501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116982549405361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1792430095052401E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94198458276133601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.140314706032598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.390331932787603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9767185174841195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.118837907460501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.5746999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1660000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.784E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.818399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.579599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3455E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7192400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3261E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70757899999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68865399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.837400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8199999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5799999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3062900000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.4498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39034099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0089999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1527000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8490999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.259245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.078E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.156E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5539999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7070000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58CA-4067-8442-378547AADF31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Dekop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7556336061378801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1362960272810398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121155093464017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.873430997943501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.948209091218501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8355864223846101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1223.8198671289699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0835605477998902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3769709825779299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.7427483901728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.0067627617399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.366735034671905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6446465538755799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.915911330297099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6466327699411991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.5460614998516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2961604797311104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.827110078118501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116982549405361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1792430095052401E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94198458276133601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.140314706032598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.390331932787603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9767185174841195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.118837907460501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$H$2:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.0718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2989999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.408E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.846899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.375799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6919E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.331499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0840999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0257E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54785700000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53310400000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.313499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1149999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0094499999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31301499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.83E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2826000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22703499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.887E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3709999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.143E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6779999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58CA-4067-8442-378547AADF31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hoja2 (2)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qm Turc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.7556336061378801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1362960272810398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121155093464017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.873430997943501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.948209091218501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8355864223846101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1223.8198671289699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0835605477998902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3769709825779299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.7427483901728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.0067627617399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.366735034671905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6446465538755799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.915911330297099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6466327699411991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.5460614998516</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2961604797311104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.827110078118501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116982549405361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1792430095052401E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94198458276133601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.140314706032598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.390331932787603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9767185174841195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.118837907460501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hoja2 (2)'!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.6258E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9150000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9980000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.0959</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.800400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3154999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.993499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2710300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0750000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43010500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41887200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.212499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9449999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2929999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9896399999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.8979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50026099999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8090999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8608999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33113100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.284E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5529999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7619999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7289999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58CA-4067-8442-378547AADF31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="662125104"/>
+        <c:axId val="666641584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="662125104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Q IDEAM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666641584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666641584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Caudal (m3/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662125104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6145,6 +10665,166 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8100,17 +12780,2013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -8140,13 +14816,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8178,13 +14854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8216,13 +14892,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -8247,6 +14923,164 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C336851-E1D9-4A89-9FC9-2F6030EA22BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27689C1F-F82F-46C5-8C4C-8CA170759494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC63D62-F6F3-0D78-FF96-5C722B052F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7851918F-EC21-F045-9022-F95B89B702B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8552,9 +15386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26A8FAD-0E27-43CD-95B0-5B6276463217}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8564,10 +15400,12 @@
     <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="1"/>
     <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8607,8 +15445,11 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -8660,8 +15501,12 @@
         <f>0.243+0.0107*A2</f>
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="5">
+        <f>0.31+0.0087*A2</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>250</v>
       </c>
@@ -8713,8 +15558,12 @@
         <f t="shared" ref="M3:M26" si="11">0.243+0.0107*A3</f>
         <v>2.9179999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N26" si="12">0.31+0.0087*A3</f>
+        <v>2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>500</v>
       </c>
@@ -8766,8 +15615,12 @@
         <f t="shared" si="11"/>
         <v>5.593</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="5">
+        <f t="shared" si="12"/>
+        <v>4.6599999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>750</v>
       </c>
@@ -8819,8 +15672,12 @@
         <f t="shared" si="11"/>
         <v>8.2680000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="5">
+        <f t="shared" si="12"/>
+        <v>6.8349999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1000</v>
       </c>
@@ -8872,8 +15729,12 @@
         <f t="shared" si="11"/>
         <v>10.943</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="5">
+        <f t="shared" si="12"/>
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1250</v>
       </c>
@@ -8925,8 +15786,12 @@
         <f t="shared" si="11"/>
         <v>13.618</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="5">
+        <f t="shared" si="12"/>
+        <v>11.185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1500</v>
       </c>
@@ -8978,8 +15843,12 @@
         <f t="shared" si="11"/>
         <v>16.292999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="5">
+        <f t="shared" si="12"/>
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1750</v>
       </c>
@@ -9031,8 +15900,12 @@
         <f t="shared" si="11"/>
         <v>18.967999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <f t="shared" si="12"/>
+        <v>15.535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2000</v>
       </c>
@@ -9084,8 +15957,12 @@
         <f t="shared" si="11"/>
         <v>21.642999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <f t="shared" si="12"/>
+        <v>17.709999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2250</v>
       </c>
@@ -9137,8 +16014,12 @@
         <f t="shared" si="11"/>
         <v>24.317999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="5">
+        <f t="shared" si="12"/>
+        <v>19.884999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2500</v>
       </c>
@@ -9190,8 +16071,12 @@
         <f t="shared" si="11"/>
         <v>26.992999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="5">
+        <f t="shared" si="12"/>
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2750</v>
       </c>
@@ -9243,8 +16128,12 @@
         <f t="shared" si="11"/>
         <v>29.667999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="5">
+        <f t="shared" si="12"/>
+        <v>24.234999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3000</v>
       </c>
@@ -9296,8 +16185,12 @@
         <f t="shared" si="11"/>
         <v>32.343000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="5">
+        <f t="shared" si="12"/>
+        <v>26.409999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3250</v>
       </c>
@@ -9349,8 +16242,12 @@
         <f t="shared" si="11"/>
         <v>35.018000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="5">
+        <f t="shared" si="12"/>
+        <v>28.584999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3500</v>
       </c>
@@ -9402,8 +16299,12 @@
         <f t="shared" si="11"/>
         <v>37.692999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="5">
+        <f t="shared" si="12"/>
+        <v>30.759999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3750</v>
       </c>
@@ -9455,8 +16356,12 @@
         <f t="shared" si="11"/>
         <v>40.368000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="5">
+        <f t="shared" si="12"/>
+        <v>32.935000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4000</v>
       </c>
@@ -9508,8 +16413,12 @@
         <f t="shared" si="11"/>
         <v>43.042999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="5">
+        <f t="shared" si="12"/>
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4250</v>
       </c>
@@ -9561,8 +16470,12 @@
         <f t="shared" si="11"/>
         <v>45.717999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="5">
+        <f t="shared" si="12"/>
+        <v>37.284999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4500</v>
       </c>
@@ -9614,8 +16527,12 @@
         <f t="shared" si="11"/>
         <v>48.393000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="5">
+        <f t="shared" si="12"/>
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4750</v>
       </c>
@@ -9667,8 +16584,12 @@
         <f t="shared" si="11"/>
         <v>51.067999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="5">
+        <f t="shared" si="12"/>
+        <v>41.634999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5000</v>
       </c>
@@ -9720,8 +16641,12 @@
         <f t="shared" si="11"/>
         <v>53.743000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5">
+        <f t="shared" si="12"/>
+        <v>43.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5250</v>
       </c>
@@ -9773,8 +16698,12 @@
         <f t="shared" si="11"/>
         <v>56.417999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="5">
+        <f t="shared" si="12"/>
+        <v>45.984999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5500</v>
       </c>
@@ -9826,8 +16755,12 @@
         <f t="shared" si="11"/>
         <v>59.092999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="5">
+        <f t="shared" si="12"/>
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5750</v>
       </c>
@@ -9879,8 +16812,12 @@
         <f t="shared" si="11"/>
         <v>61.768000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="5">
+        <f t="shared" si="12"/>
+        <v>50.335000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>6000</v>
       </c>
@@ -9931,6 +16868,10 @@
       <c r="M26" s="5">
         <f t="shared" si="11"/>
         <v>64.442999999999998</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="12"/>
+        <v>52.51</v>
       </c>
     </row>
   </sheetData>
@@ -9940,11 +16881,490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8787FBFF-3E7C-4343-B020-24B3663DE362}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <f>0.0021+0.0168*A2</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <f>0.00223+0.0143*A2</f>
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <f>0.00243+0.0177*A2</f>
+        <v>2.4299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B27" si="0">0.0021+0.0168*A3</f>
+        <v>1.89E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C27" si="1">0.00223+0.0143*A3</f>
+        <v>1.653E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D27" si="2">0.00243+0.0177*A3</f>
+        <v>2.0130000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5699999999999996E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="1"/>
+        <v>3.083E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="2"/>
+        <v>3.7830000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5130000000000003E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>5.5530000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>6.93E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.9430000000000004E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>7.3230000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0929999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8029999999999997E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1197</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.10232999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13649999999999998</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11663</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14402999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13093000000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16172999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17009999999999997</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14523000000000003</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17942999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18689999999999998</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15953000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20369999999999999</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.17383000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21482999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22049999999999997</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18813000000000002</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23252999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23729999999999998</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20243</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25023000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>0.21673000000000001</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.23103000000000001</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.28769999999999996</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.24533000000000002</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.30332999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25963000000000003</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.32102999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.27393000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33872999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33809999999999996</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28823000000000004</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35642999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.30253000000000002</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37413000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31683</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.39183000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.38849999999999996</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33113000000000004</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40953000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40529999999999999</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34543000000000001</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35972999999999999</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44492999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B7D7CD-9BD7-482B-B580-CEB577AF678A}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9985,10 +17405,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>21197080</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="4">
@@ -10019,10 +17439,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>21197110</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="4">
@@ -10053,10 +17473,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>21197150</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4">
@@ -10087,10 +17507,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>21197210</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="4">
@@ -10124,7 +17544,7 @@
       <c r="A6" s="7">
         <v>21207960</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="4">
@@ -10158,7 +17578,7 @@
       <c r="A7" s="7">
         <v>21209200</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4">
@@ -10192,7 +17612,7 @@
       <c r="A8" s="7">
         <v>21209920</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>506</v>
       </c>
       <c r="C8" s="4">
@@ -10223,10 +17643,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>21227010</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="4">
@@ -10257,10 +17677,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>21237010</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -10291,10 +17711,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>21237020</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>490</v>
       </c>
       <c r="C11" s="4">
@@ -10325,10 +17745,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>21237040</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="4">
@@ -10359,10 +17779,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>21257090</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="4">
@@ -10393,10 +17813,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>23017020</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>487</v>
       </c>
       <c r="C14" s="4">
@@ -10427,10 +17847,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>23017030</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>489</v>
       </c>
       <c r="C15" s="4">
@@ -10461,10 +17881,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>23017090</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>488</v>
       </c>
       <c r="C16" s="4">
@@ -10495,10 +17915,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>23067050</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>492</v>
       </c>
       <c r="C17" s="4">
@@ -10529,10 +17949,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>23067070</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C18" s="4">
@@ -10563,10 +17983,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>23067080</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>496</v>
       </c>
       <c r="C19" s="4">
@@ -10597,10 +18017,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>23067090</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>495</v>
       </c>
       <c r="C20" s="4">
@@ -10631,10 +18051,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>24017150</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>507</v>
       </c>
       <c r="C21" s="4">
@@ -10665,10 +18085,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>24017610</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>538</v>
       </c>
       <c r="C22" s="4">
@@ -10699,10 +18119,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>35027020</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="4">
@@ -10733,10 +18153,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>35027100</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="4">
@@ -10767,10 +18187,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>35027190</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="4">
@@ -10801,10 +18221,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>35027200</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="4">
@@ -10835,10 +18255,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>35027220</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="4">
@@ -10869,10 +18289,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>35027500</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="4">
@@ -10903,10 +18323,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>35027510</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="4">
@@ -10937,10 +18357,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>35037100</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="4">
@@ -10971,10 +18391,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>35037110</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="4">
@@ -11005,10 +18425,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>35067020</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>375</v>
       </c>
       <c r="C32" s="4">
@@ -11039,10 +18459,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>35067030</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>385</v>
       </c>
       <c r="C33" s="4">
@@ -11073,10 +18493,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>35067040</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>376</v>
       </c>
       <c r="C34" s="4">
@@ -11107,10 +18527,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>35067090</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C35" s="4">
@@ -11141,10 +18561,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>35067120</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C36" s="4">
@@ -11175,10 +18595,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>35077070</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C37" s="4">
@@ -11209,10 +18629,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>35077140</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>476</v>
       </c>
       <c r="C38" s="4">
@@ -11252,7 +18672,910 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C35FEE-0AC2-40BC-88A8-13977ED24F75}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>21197080</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.4000279999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-74.363583000000006</v>
+      </c>
+      <c r="E2" s="4">
+        <f>+VLOOKUP(B2,Hoja4!B:G,2,FALSE)</f>
+        <v>1.732656</v>
+      </c>
+      <c r="F2" s="4">
+        <f>+VLOOKUP(A2,Hoja3!I:J,2,FALSE)</f>
+        <v>1.7556336061378801</v>
+      </c>
+      <c r="G2" s="4">
+        <f>+VLOOKUP(B2,Hoja4!B:G,4,FALSE)</f>
+        <v>2.5746999999999999E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>+VLOOKUP(B2,Hoja4!B:G,5,FALSE)</f>
+        <v>2.0718E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>+VLOOKUP(B2,Hoja4!B:G,6,FALSE)</f>
+        <v>2.6258E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>21197110</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.4030560000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-74.385306</v>
+      </c>
+      <c r="E3" s="4">
+        <f>+VLOOKUP(B3,Hoja4!B:G,2,FALSE)</f>
+        <v>0.30078100000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <f>+VLOOKUP(A3,Hoja3!I:J,2,FALSE)</f>
+        <v>3.1362960272810398</v>
+      </c>
+      <c r="G3" s="4">
+        <f>+VLOOKUP(B3,Hoja4!B:G,4,FALSE)</f>
+        <v>4.1660000000000004E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <f>+VLOOKUP(B3,Hoja4!B:G,5,FALSE)</f>
+        <v>3.2989999999999998E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <f>+VLOOKUP(B3,Hoja4!B:G,6,FALSE)</f>
+        <v>3.9150000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>21197210</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4.3666669999999996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-74.45</v>
+      </c>
+      <c r="E4" s="4">
+        <f>+VLOOKUP(B4,Hoja4!B:G,2,FALSE)</f>
+        <v>0.15015600000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <f>+VLOOKUP(A4,Hoja3!I:J,2,FALSE)</f>
+        <v>0.121155093464017</v>
+      </c>
+      <c r="G4" s="4">
+        <f>+VLOOKUP(B4,Hoja4!B:G,4,FALSE)</f>
+        <v>1.784E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>+VLOOKUP(B4,Hoja4!B:G,5,FALSE)</f>
+        <v>1.408E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <f>+VLOOKUP(B4,Hoja4!B:G,6,FALSE)</f>
+        <v>1.9980000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>21207960</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.4548610000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-74.608528000000007</v>
+      </c>
+      <c r="E5" s="4">
+        <f>+VLOOKUP(B5,Hoja4!B:G,2,FALSE)</f>
+        <v>5406.78125</v>
+      </c>
+      <c r="F5" s="4">
+        <f>+VLOOKUP(A5,Hoja3!I:J,2,FALSE)</f>
+        <v>41.873430997943501</v>
+      </c>
+      <c r="G5" s="4">
+        <f>+VLOOKUP(B5,Hoja4!B:G,4,FALSE)</f>
+        <v>43.818399999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <f>+VLOOKUP(B5,Hoja4!B:G,5,FALSE)</f>
+        <v>33.846899999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <f>+VLOOKUP(B5,Hoja4!B:G,6,FALSE)</f>
+        <v>53.0959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>21209200</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.3048890000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-74.793778000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <f>+VLOOKUP(B6,Hoja4!B:G,2,FALSE)</f>
+        <v>5918.359375</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+VLOOKUP(A6,Hoja3!I:J,2,FALSE)</f>
+        <v>50.948209091218501</v>
+      </c>
+      <c r="G6" s="4">
+        <f>+VLOOKUP(B6,Hoja4!B:G,4,FALSE)</f>
+        <v>48.579599999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <f>+VLOOKUP(B6,Hoja4!B:G,5,FALSE)</f>
+        <v>37.375799999999998</v>
+      </c>
+      <c r="I6" s="4">
+        <f>+VLOOKUP(B6,Hoja4!B:G,6,FALSE)</f>
+        <v>55.800400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>21209920</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.1922499999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-73.779055999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <f>+VLOOKUP(B7,Hoja4!B:G,2,FALSE)</f>
+        <v>5.7531249999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <f>+VLOOKUP(A7,Hoja3!I:J,2,FALSE)</f>
+        <v>4.8355864223846101</v>
+      </c>
+      <c r="G7" s="4">
+        <f>+VLOOKUP(B7,Hoja4!B:G,4,FALSE)</f>
+        <v>2.3455E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f>+VLOOKUP(B7,Hoja4!B:G,5,FALSE)</f>
+        <v>1.6919E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <f>+VLOOKUP(B7,Hoja4!B:G,6,FALSE)</f>
+        <v>3.3154999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>21237020</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.2024169999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-74.727610999999996</v>
+      </c>
+      <c r="E8" s="4">
+        <f>+VLOOKUP(B8,Hoja4!B:G,2,FALSE)</f>
+        <v>2144.6875</v>
+      </c>
+      <c r="F8" s="4">
+        <f>+VLOOKUP(A8,Hoja3!I:J,2,FALSE)</f>
+        <v>1223.8198671289699</v>
+      </c>
+      <c r="G8" s="4">
+        <f>+VLOOKUP(B8,Hoja4!B:G,4,FALSE)</f>
+        <v>24.0137</v>
+      </c>
+      <c r="H8" s="4">
+        <f>+VLOOKUP(B8,Hoja4!B:G,5,FALSE)</f>
+        <v>18.331499999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <f>+VLOOKUP(B8,Hoja4!B:G,6,FALSE)</f>
+        <v>15.993499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>21237040</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.6463890000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-74.659443999999993</v>
+      </c>
+      <c r="E9" s="4">
+        <f>+VLOOKUP(B9,Hoja4!B:G,2,FALSE)</f>
+        <v>247.69843800000001</v>
+      </c>
+      <c r="F9" s="4">
+        <f>+VLOOKUP(A9,Hoja3!I:J,2,FALSE)</f>
+        <v>3.0835605477998902</v>
+      </c>
+      <c r="G9" s="4">
+        <f>+VLOOKUP(B9,Hoja4!B:G,4,FALSE)</f>
+        <v>2.7192400000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f>+VLOOKUP(B9,Hoja4!B:G,5,FALSE)</f>
+        <v>2.0840999999999998</v>
+      </c>
+      <c r="I9" s="4">
+        <f>+VLOOKUP(B9,Hoja4!B:G,6,FALSE)</f>
+        <v>2.2710300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>23017020</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.2102779999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-74.802756000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <f>+VLOOKUP(B10,Hoja4!B:G,2,FALSE)</f>
+        <v>0.91656199999999999</v>
+      </c>
+      <c r="F10" s="4">
+        <f>+VLOOKUP(A10,Hoja3!I:J,2,FALSE)</f>
+        <v>1.3769709825779299</v>
+      </c>
+      <c r="G10" s="4">
+        <f>+VLOOKUP(B10,Hoja4!B:G,4,FALSE)</f>
+        <v>1.3261E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f>+VLOOKUP(B10,Hoja4!B:G,5,FALSE)</f>
+        <v>1.0257E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <f>+VLOOKUP(B10,Hoja4!B:G,6,FALSE)</f>
+        <v>8.0750000000000006E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>23017030</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.2038890000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-74.741111000000004</v>
+      </c>
+      <c r="E11" s="4">
+        <f>+VLOOKUP(B11,Hoja4!B:G,2,FALSE)</f>
+        <v>48.410781</v>
+      </c>
+      <c r="F11" s="4">
+        <f>+VLOOKUP(A11,Hoja3!I:J,2,FALSE)</f>
+        <v>46.7427483901728</v>
+      </c>
+      <c r="G11" s="4">
+        <f>+VLOOKUP(B11,Hoja4!B:G,4,FALSE)</f>
+        <v>0.70757899999999996</v>
+      </c>
+      <c r="H11" s="4">
+        <f>+VLOOKUP(B11,Hoja4!B:G,5,FALSE)</f>
+        <v>0.54785700000000004</v>
+      </c>
+      <c r="I11" s="4">
+        <f>+VLOOKUP(B11,Hoja4!B:G,6,FALSE)</f>
+        <v>0.43010500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>23017090</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5.2029170000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-74.749167</v>
+      </c>
+      <c r="E12" s="4">
+        <f>+VLOOKUP(B12,Hoja4!B:G,2,FALSE)</f>
+        <v>47.212499999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f>+VLOOKUP(A12,Hoja3!I:J,2,FALSE)</f>
+        <v>39.0067627617399</v>
+      </c>
+      <c r="G12" s="4">
+        <f>+VLOOKUP(B12,Hoja4!B:G,4,FALSE)</f>
+        <v>0.68865399999999999</v>
+      </c>
+      <c r="H12" s="4">
+        <f>+VLOOKUP(B12,Hoja4!B:G,5,FALSE)</f>
+        <v>0.53310400000000002</v>
+      </c>
+      <c r="I12" s="4">
+        <f>+VLOOKUP(B12,Hoja4!B:G,6,FALSE)</f>
+        <v>0.41887200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>23067050</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.1921109999999997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-74.572917000000004</v>
+      </c>
+      <c r="E13" s="4">
+        <f>+VLOOKUP(B13,Hoja4!B:G,2,FALSE)</f>
+        <v>2226.921875</v>
+      </c>
+      <c r="F13" s="4">
+        <f>+VLOOKUP(A13,Hoja3!I:J,2,FALSE)</f>
+        <v>66.366735034671905</v>
+      </c>
+      <c r="G13" s="4">
+        <f>+VLOOKUP(B13,Hoja4!B:G,4,FALSE)</f>
+        <v>51.837400000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <f>+VLOOKUP(B13,Hoja4!B:G,5,FALSE)</f>
+        <v>44.313499999999998</v>
+      </c>
+      <c r="I13" s="4">
+        <f>+VLOOKUP(B13,Hoja4!B:G,6,FALSE)</f>
+        <v>50.212499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>23067070</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.0085829999999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-74.467111000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <f>+VLOOKUP(B14,Hoja4!B:G,2,FALSE)</f>
+        <v>0.17046900000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <f>+VLOOKUP(A14,Hoja3!I:J,2,FALSE)</f>
+        <v>8.6446465538755799</v>
+      </c>
+      <c r="G14" s="4">
+        <f>+VLOOKUP(B14,Hoja4!B:G,4,FALSE)</f>
+        <v>4.8199999999999996E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <f>+VLOOKUP(B14,Hoja4!B:G,5,FALSE)</f>
+        <v>4.1149999999999997E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <f>+VLOOKUP(B14,Hoja4!B:G,6,FALSE)</f>
+        <v>3.9449999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>23067080</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.2571389999999996</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-74.345693999999995</v>
+      </c>
+      <c r="E15" s="4">
+        <f>+VLOOKUP(B15,Hoja4!B:G,2,FALSE)</f>
+        <v>9.9530999999999994E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f>+VLOOKUP(A15,Hoja3!I:J,2,FALSE)</f>
+        <v>21.915911330297099</v>
+      </c>
+      <c r="G15" s="4">
+        <f>+VLOOKUP(B15,Hoja4!B:G,4,FALSE)</f>
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <f>+VLOOKUP(B15,Hoja4!B:G,5,FALSE)</f>
+        <v>3.1819999999999999E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <f>+VLOOKUP(B15,Hoja4!B:G,6,FALSE)</f>
+        <v>3.2929999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>23067090</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.233333</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-74.283332999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <f>+VLOOKUP(B16,Hoja4!B:G,2,FALSE)</f>
+        <v>434.328125</v>
+      </c>
+      <c r="F16" s="4">
+        <f>+VLOOKUP(A16,Hoja3!I:J,2,FALSE)</f>
+        <v>9.6466327699411991</v>
+      </c>
+      <c r="G16" s="4">
+        <f>+VLOOKUP(B16,Hoja4!B:G,4,FALSE)</f>
+        <v>9.3062900000000006</v>
+      </c>
+      <c r="H16" s="4">
+        <f>+VLOOKUP(B16,Hoja4!B:G,5,FALSE)</f>
+        <v>8.0094499999999993</v>
+      </c>
+      <c r="I16" s="4">
+        <f>+VLOOKUP(B16,Hoja4!B:G,6,FALSE)</f>
+        <v>9.9896399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>35027020</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-73.883332999999993</v>
+      </c>
+      <c r="E17" s="4">
+        <f>+VLOOKUP(B17,Hoja4!B:G,2,FALSE)</f>
+        <v>1085.0218749999999</v>
+      </c>
+      <c r="F17" s="4">
+        <f>+VLOOKUP(A17,Hoja3!I:J,2,FALSE)</f>
+        <v>19.5460614998516</v>
+      </c>
+      <c r="G17" s="4">
+        <f>+VLOOKUP(B17,Hoja4!B:G,4,FALSE)</f>
+        <v>15.4498</v>
+      </c>
+      <c r="H17" s="4">
+        <f>+VLOOKUP(B17,Hoja4!B:G,5,FALSE)</f>
+        <v>12.7997</v>
+      </c>
+      <c r="I17" s="4">
+        <f>+VLOOKUP(B17,Hoja4!B:G,6,FALSE)</f>
+        <v>18.8979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>35027100</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.4286390000000004</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-74.010193999999998</v>
+      </c>
+      <c r="E18" s="4">
+        <f>+VLOOKUP(B18,Hoja4!B:G,2,FALSE)</f>
+        <v>34.014375000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <f>+VLOOKUP(A18,Hoja3!I:J,2,FALSE)</f>
+        <v>5.2961604797311104</v>
+      </c>
+      <c r="G18" s="4">
+        <f>+VLOOKUP(B18,Hoja4!B:G,4,FALSE)</f>
+        <v>0.39034099999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <f>+VLOOKUP(B18,Hoja4!B:G,5,FALSE)</f>
+        <v>0.31301499999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <f>+VLOOKUP(B18,Hoja4!B:G,6,FALSE)</f>
+        <v>0.50026099999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>35027190</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.3143060000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-73.874943999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <f>+VLOOKUP(B19,Hoja4!B:G,2,FALSE)</f>
+        <v>3.7344000000000002E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f>+VLOOKUP(A19,Hoja3!I:J,2,FALSE)</f>
+        <v>27.827110078118501</v>
+      </c>
+      <c r="G19" s="4">
+        <f>+VLOOKUP(B19,Hoja4!B:G,4,FALSE)</f>
+        <v>1.0089999999999999E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <f>+VLOOKUP(B19,Hoja4!B:G,5,FALSE)</f>
+        <v>8.83E-4</v>
+      </c>
+      <c r="I19" s="4">
+        <f>+VLOOKUP(B19,Hoja4!B:G,6,FALSE)</f>
+        <v>1.0759999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>35027220</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.4848889999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-74.030277999999996</v>
+      </c>
+      <c r="E20" s="4">
+        <f>+VLOOKUP(B20,Hoja4!B:G,2,FALSE)</f>
+        <v>3.3374999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <f>+VLOOKUP(A20,Hoja3!I:J,2,FALSE)</f>
+        <v>0.116982549405361</v>
+      </c>
+      <c r="G20" s="4">
+        <f>+VLOOKUP(B20,Hoja4!B:G,4,FALSE)</f>
+        <v>5.1527000000000003E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <f>+VLOOKUP(B20,Hoja4!B:G,5,FALSE)</f>
+        <v>4.3275000000000001E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <f>+VLOOKUP(B20,Hoja4!B:G,6,FALSE)</f>
+        <v>6.8090999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>35027500</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4.6649440000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-73.857388999999998</v>
+      </c>
+      <c r="E21" s="4">
+        <f>+VLOOKUP(B21,Hoja4!B:G,2,FALSE)</f>
+        <v>2.1196869999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <f>+VLOOKUP(A21,Hoja3!I:J,2,FALSE)</f>
+        <v>7.1792430095052401E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <f>+VLOOKUP(B21,Hoja4!B:G,4,FALSE)</f>
+        <v>3.8490999999999997E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>+VLOOKUP(B21,Hoja4!B:G,5,FALSE)</f>
+        <v>3.2826000000000001E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <f>+VLOOKUP(B21,Hoja4!B:G,6,FALSE)</f>
+        <v>4.8608999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>35027510</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.6645000000000003</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-73.863083000000003</v>
+      </c>
+      <c r="E22" s="4">
+        <f>+VLOOKUP(B22,Hoja4!B:G,2,FALSE)</f>
+        <v>12.527030999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <f>+VLOOKUP(A22,Hoja3!I:J,2,FALSE)</f>
+        <v>0.94198458276133601</v>
+      </c>
+      <c r="G22" s="4">
+        <f>+VLOOKUP(B22,Hoja4!B:G,4,FALSE)</f>
+        <v>0.259245</v>
+      </c>
+      <c r="H22" s="4">
+        <f>+VLOOKUP(B22,Hoja4!B:G,5,FALSE)</f>
+        <v>0.22703499999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <f>+VLOOKUP(B22,Hoja4!B:G,6,FALSE)</f>
+        <v>0.33113100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>35067020</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-73.533332999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <f>+VLOOKUP(B23,Hoja4!B:G,2,FALSE)</f>
+        <v>5.9531000000000001E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <f>+VLOOKUP(A23,Hoja3!I:J,2,FALSE)</f>
+        <v>70.140314706032598</v>
+      </c>
+      <c r="G23" s="4">
+        <f>+VLOOKUP(B23,Hoja4!B:G,4,FALSE)</f>
+        <v>2.078E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <f>+VLOOKUP(B23,Hoja4!B:G,5,FALSE)</f>
+        <v>1.887E-3</v>
+      </c>
+      <c r="I23" s="4">
+        <f>+VLOOKUP(B23,Hoja4!B:G,6,FALSE)</f>
+        <v>2.284E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>35067040</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4.7833329999999998</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-73.583332999999996</v>
+      </c>
+      <c r="E24" s="4">
+        <f>+VLOOKUP(B24,Hoja4!B:G,2,FALSE)</f>
+        <v>0.232656</v>
+      </c>
+      <c r="F24" s="4">
+        <f>+VLOOKUP(A24,Hoja3!I:J,2,FALSE)</f>
+        <v>34.390331932787603</v>
+      </c>
+      <c r="G24" s="4">
+        <f>+VLOOKUP(B24,Hoja4!B:G,4,FALSE)</f>
+        <v>6.156E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <f>+VLOOKUP(B24,Hoja4!B:G,5,FALSE)</f>
+        <v>5.3709999999999999E-3</v>
+      </c>
+      <c r="I24" s="4">
+        <f>+VLOOKUP(B24,Hoja4!B:G,6,FALSE)</f>
+        <v>6.5529999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>35067120</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.6666670000000003</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-73.516666999999998</v>
+      </c>
+      <c r="E25" s="4">
+        <f>+VLOOKUP(B25,Hoja4!B:G,2,FALSE)</f>
+        <v>0.121563</v>
+      </c>
+      <c r="F25" s="4">
+        <f>+VLOOKUP(A25,Hoja3!I:J,2,FALSE)</f>
+        <v>8.9767185174841195</v>
+      </c>
+      <c r="G25" s="4">
+        <f>+VLOOKUP(B25,Hoja4!B:G,4,FALSE)</f>
+        <v>5.5539999999999999E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <f>+VLOOKUP(B25,Hoja4!B:G,5,FALSE)</f>
+        <v>5.143E-3</v>
+      </c>
+      <c r="I25" s="4">
+        <f>+VLOOKUP(B25,Hoja4!B:G,6,FALSE)</f>
+        <v>5.7619999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>35077140</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.049722</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-73.526972000000001</v>
+      </c>
+      <c r="E26" s="4">
+        <f>+VLOOKUP(B26,Hoja4!B:G,2,FALSE)</f>
+        <v>0.39718799999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <f>+VLOOKUP(A26,Hoja3!I:J,2,FALSE)</f>
+        <v>10.118837907460501</v>
+      </c>
+      <c r="G26" s="4">
+        <f>+VLOOKUP(B26,Hoja4!B:G,4,FALSE)</f>
+        <v>4.7070000000000002E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <f>+VLOOKUP(B26,Hoja4!B:G,5,FALSE)</f>
+        <v>3.6779999999999998E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <f>+VLOOKUP(B26,Hoja4!B:G,6,FALSE)</f>
+        <v>4.7289999999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I26" xr:uid="{17B7D7CD-9BD7-482B-B580-CEB577AF678A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F148E54-E299-46FA-AA09-146856E0B448}">
   <dimension ref="A1:G533"/>
   <sheetViews>
@@ -23526,7 +31849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC2690D-7373-4E7F-B1CF-F93FF4C12F51}">
   <dimension ref="I1:M39"/>
   <sheetViews>
